--- a/SynAddAnt.xlsx
+++ b/SynAddAnt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DABE6D-8836-4812-864E-3F96AFBB63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{14DABE6D-8836-4812-864E-3F96AFBB63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB61B70A-8151-4262-9EFD-83EE8FB45ECC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA20FE89-29B3-49F7-8926-B36F3F7A5969}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="21">
   <si>
     <t>Genotypes</t>
   </si>
@@ -92,16 +92,13 @@
     <t>MP_PFOS_PFOA</t>
   </si>
   <si>
-    <t>MP_PFOANULL</t>
+    <t>NULL-LRV-0-1</t>
   </si>
   <si>
-    <t>PFOS_PFOANULL</t>
+    <t>NULL-LR2-36-01</t>
   </si>
   <si>
-    <t>MP_PFOSNULL</t>
-  </si>
-  <si>
-    <t>MP_PFOS_PFOANULL</t>
+    <t>MP_PFOS</t>
   </si>
 </sst>
 </file>
@@ -462,11 +459,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B3E95-7289-4F85-AD02-8506D146D6C9}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F81"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1450,13 +1452,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1470,13 +1472,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1490,13 +1492,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1510,13 +1512,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1530,13 +1532,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1550,13 +1552,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1570,13 +1572,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -1590,13 +1592,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -1610,13 +1612,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -1630,13 +1632,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -1650,13 +1652,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -1670,13 +1672,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -1690,13 +1692,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -1710,13 +1712,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -1730,13 +1732,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -1750,13 +1752,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -1770,7 +1772,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1790,7 +1792,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1810,7 +1812,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -1830,7 +1832,7 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -1850,7 +1852,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
@@ -1870,7 +1872,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1890,7 +1892,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
@@ -1910,7 +1912,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -1930,13 +1932,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -1950,13 +1952,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -1970,13 +1972,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -1990,13 +1992,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2010,13 +2012,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2030,13 +2032,13 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2050,13 +2052,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2070,13 +2072,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>

--- a/SynAddAnt.xlsx
+++ b/SynAddAnt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Multigenerational_analysis/life-history-traits-analysis/Tai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mxa1132-admin\OneDrive\Documents\life-history-traits-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{14DABE6D-8836-4812-864E-3F96AFBB63B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB61B70A-8151-4262-9EFD-83EE8FB45ECC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1F87D44-96AD-4290-B889-E86752E757ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA20FE89-29B3-49F7-8926-B36F3F7A5969}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>LRV-0-1</t>
   </si>
   <si>
-    <t>Age_maturiy</t>
-  </si>
-  <si>
     <t>MP</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>MP_PFOS</t>
+  </si>
+  <si>
+    <t>Age_maturity</t>
   </si>
 </sst>
 </file>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18B3E95-7289-4F85-AD02-8506D146D6C9}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -495,10 +495,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>-0.77951889725773604</v>
@@ -512,13 +512,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3">
         <v>0.43096000000000001</v>
@@ -535,10 +535,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>-1.71065036230637</v>
@@ -552,13 +552,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>-1.8339754945379301</v>
@@ -575,10 +575,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>-1.7939665317603799</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>-1.8491244497330701</v>
@@ -615,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>1.57453805842831</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -655,10 +655,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>1.4031214775804499</v>
@@ -672,13 +672,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1.4624941965560601</v>
@@ -695,10 +695,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>-0.39426</v>
@@ -712,13 +712,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>-2.20839675740734</v>
@@ -735,10 +735,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>-1.8121023614424301</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>-43</v>
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
       </c>
       <c r="D16">
         <v>-2.0801848365168198</v>
@@ -792,13 +792,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
       </c>
       <c r="D17">
         <v>2.2360679549995801</v>
@@ -815,10 +815,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>0.39009471499680098</v>
@@ -832,13 +832,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>1.44913814923804</v>
@@ -855,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>-1.83020096454151</v>
@@ -872,13 +872,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>-1.8323759021947199</v>
@@ -895,10 +895,10 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22">
         <v>-1.84438835917261</v>
@@ -912,13 +912,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23">
         <v>-1.7844199006823001</v>
@@ -935,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>1.62018534920394</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1.6461095024963199</v>
@@ -975,10 +975,10 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>1.5202791091023</v>
@@ -1015,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <v>-1.8534550372446099</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <v>-1.8436248603457099</v>
@@ -1055,10 +1055,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <v>-1.75027838638335</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>-1.7432821485482499</v>
@@ -1095,10 +1095,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>1.4303472883216</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>0.67684203914637697</v>
@@ -1135,10 +1135,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>-0.93541519338773704</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>1.26131271372943</v>
@@ -1175,10 +1175,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>-1.8423067974717899</v>
@@ -1192,13 +1192,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>-1.58788823833691</v>
@@ -1215,10 +1215,10 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>-1.84163732324531</v>
@@ -1232,13 +1232,13 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>-1.73889843120217</v>
@@ -1255,10 +1255,10 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>1.84637245665271</v>
@@ -1272,13 +1272,13 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>1.00803199896777</v>
@@ -1295,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>1.01881887444636</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D43">
         <v>1.6624263056110999</v>
@@ -1335,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>-2.5059642147117298</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>-1.7986239696802599</v>
@@ -1375,10 +1375,10 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>-1.8206753755701399</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>-1.7586572429591001</v>
@@ -1415,10 +1415,10 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>-1.36930528752672</v>
@@ -1432,13 +1432,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>0.67067040230174102</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>-6.0163371332020502E-2</v>
@@ -1472,13 +1472,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>1.47902009988315</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>-1.8218520592452201</v>
@@ -1512,13 +1512,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>-1.6668668641648701</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54">
         <v>-1.8076353111554599</v>
@@ -1552,13 +1552,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>-1.88070147483767</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>1.30132452204613</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>1.2404152083173901</v>
@@ -1612,13 +1612,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>0.96091967150823698</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>1.4937996915758001</v>
@@ -1652,13 +1652,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>-1.8769540238800699</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>-1.98578757963332</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>-1.8773675691010301</v>
@@ -1712,13 +1712,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>-1.49127361462202</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>1.3653741125068199</v>
@@ -1752,13 +1752,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>1.6961132485564501</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>0.70599906362170295</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
         <v>19</v>
-      </c>
-      <c r="B67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" t="s">
-        <v>20</v>
       </c>
       <c r="D67">
         <v>1.48582169786594</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>-0.19410920384077099</v>
@@ -1832,13 +1832,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
         <v>19</v>
-      </c>
-      <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>20</v>
       </c>
       <c r="D69">
         <v>-0.19444911398384199</v>
@@ -1852,13 +1852,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>-1.67557298169694</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
         <v>19</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
       </c>
       <c r="D71">
         <v>-2.9928506136409001</v>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>1.5553407111384301</v>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
         <v>19</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>20</v>
       </c>
       <c r="D73">
         <v>1.1055416146785799</v>
@@ -1932,13 +1932,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>0.61295164299375104</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>1.50093245428722</v>
@@ -1972,13 +1972,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>-1.83879831369485</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>-2.0064042517854102</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78">
         <v>-1.8136178383286801</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>-1.78236662117749</v>
@@ -2052,13 +2052,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>1.4798268130360901</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>1.3063063389966501</v>
